--- a/src/main/java/com/automationblog/qa/dataProvider/logindata.xlsx
+++ b/src/main/java/com/automationblog/qa/dataProvider/logindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15435" windowHeight="3630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
@@ -373,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -424,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
